--- a/data/pca/factorExposure/factorExposure_2016-04-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01139341674257088</v>
+        <v>-0.01574039302813551</v>
       </c>
       <c r="C2">
-        <v>0.05177903119173878</v>
+        <v>0.03843916748887783</v>
       </c>
       <c r="D2">
-        <v>0.04451454923738438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06476246237398937</v>
+      </c>
+      <c r="E2">
+        <v>0.09481702130812771</v>
+      </c>
+      <c r="F2">
+        <v>-0.08358362677890972</v>
+      </c>
+      <c r="G2">
+        <v>-0.02492944242280854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04118812175018426</v>
+        <v>-0.0254336174545279</v>
       </c>
       <c r="C3">
-        <v>0.1197563623087896</v>
+        <v>0.06613848134280581</v>
       </c>
       <c r="D3">
-        <v>0.08712424627098507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07330008441147023</v>
+      </c>
+      <c r="E3">
+        <v>0.06956228998593796</v>
+      </c>
+      <c r="F3">
+        <v>0.02349448193910638</v>
+      </c>
+      <c r="G3">
+        <v>-0.05037841807080406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06373319676730536</v>
+        <v>-0.06059647044795293</v>
       </c>
       <c r="C4">
-        <v>0.06363332004560372</v>
+        <v>0.06352746166556064</v>
       </c>
       <c r="D4">
-        <v>0.03060684280257376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05799911952682529</v>
+      </c>
+      <c r="E4">
+        <v>0.0882088375342132</v>
+      </c>
+      <c r="F4">
+        <v>-0.05222234524065193</v>
+      </c>
+      <c r="G4">
+        <v>-0.08448231640638008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04029290556640312</v>
+        <v>-0.03653104417596029</v>
       </c>
       <c r="C6">
-        <v>0.0365926071090477</v>
+        <v>0.02743669482252834</v>
       </c>
       <c r="D6">
-        <v>0.03350447879042893</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0634645849037986</v>
+      </c>
+      <c r="E6">
+        <v>0.08749614494167882</v>
+      </c>
+      <c r="F6">
+        <v>-0.03414629862820394</v>
+      </c>
+      <c r="G6">
+        <v>-0.06187059121061687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02690210686571426</v>
+        <v>-0.021086476427973</v>
       </c>
       <c r="C7">
-        <v>0.0403297373964662</v>
+        <v>0.03620022648519341</v>
       </c>
       <c r="D7">
-        <v>-0.004013797281152546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0398463971620733</v>
+      </c>
+      <c r="E7">
+        <v>0.06802580424301388</v>
+      </c>
+      <c r="F7">
+        <v>-0.0745525281791794</v>
+      </c>
+      <c r="G7">
+        <v>-0.09595296789127493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007264035310453373</v>
+        <v>-0.005691634362743736</v>
       </c>
       <c r="C8">
-        <v>0.04106425870338914</v>
+        <v>0.03455331437490649</v>
       </c>
       <c r="D8">
-        <v>0.02839458958518482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03622693420503376</v>
+      </c>
+      <c r="E8">
+        <v>0.06222326360163429</v>
+      </c>
+      <c r="F8">
+        <v>-0.02176371346584753</v>
+      </c>
+      <c r="G8">
+        <v>-0.03680711715604415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03858813867781657</v>
+        <v>-0.04023155048143097</v>
       </c>
       <c r="C9">
-        <v>0.04777931863724144</v>
+        <v>0.05043938327831792</v>
       </c>
       <c r="D9">
-        <v>0.01441292983084716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04210858324087888</v>
+      </c>
+      <c r="E9">
+        <v>0.07127917103420632</v>
+      </c>
+      <c r="F9">
+        <v>-0.06352353605454368</v>
+      </c>
+      <c r="G9">
+        <v>-0.07682100562675827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07206178956777723</v>
+        <v>-0.0984023358979183</v>
       </c>
       <c r="C10">
-        <v>-0.1930056734397908</v>
+        <v>-0.2017991940266081</v>
       </c>
       <c r="D10">
-        <v>-0.003229996037393863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01125148840296568</v>
+      </c>
+      <c r="E10">
+        <v>0.03274147811700611</v>
+      </c>
+      <c r="F10">
+        <v>-0.02000378148674521</v>
+      </c>
+      <c r="G10">
+        <v>-0.03494582939318873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04313217854412745</v>
+        <v>-0.03791798562324547</v>
       </c>
       <c r="C11">
-        <v>0.0505301725794703</v>
+        <v>0.0473311064000602</v>
       </c>
       <c r="D11">
-        <v>0.01425927821800294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03230237360333494</v>
+      </c>
+      <c r="E11">
+        <v>0.02875118267344976</v>
+      </c>
+      <c r="F11">
+        <v>-0.04406518212975612</v>
+      </c>
+      <c r="G11">
+        <v>-0.06584838484282915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04567835442421681</v>
+        <v>-0.03991829309421384</v>
       </c>
       <c r="C12">
-        <v>0.04538116693823794</v>
+        <v>0.04545625577410797</v>
       </c>
       <c r="D12">
-        <v>0.004175589277417889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02773415536795325</v>
+      </c>
+      <c r="E12">
+        <v>0.03566849656714324</v>
+      </c>
+      <c r="F12">
+        <v>-0.04570495913955029</v>
+      </c>
+      <c r="G12">
+        <v>-0.06359094095338959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0162612212118028</v>
+        <v>-0.01408578775419928</v>
       </c>
       <c r="C13">
-        <v>0.05310595433707054</v>
+        <v>0.0418059381891164</v>
       </c>
       <c r="D13">
-        <v>0.01245697916364851</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04899521790276889</v>
+      </c>
+      <c r="E13">
+        <v>0.1014453267487036</v>
+      </c>
+      <c r="F13">
+        <v>-0.06500299001106841</v>
+      </c>
+      <c r="G13">
+        <v>-0.09172278700248136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01046777999460827</v>
+        <v>-0.006913646523474896</v>
       </c>
       <c r="C14">
-        <v>0.0359628709496051</v>
+        <v>0.03060051632362077</v>
       </c>
       <c r="D14">
-        <v>-0.005955030740993249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02671941486262793</v>
+      </c>
+      <c r="E14">
+        <v>0.05199737649865645</v>
+      </c>
+      <c r="F14">
+        <v>-0.08308214342053553</v>
+      </c>
+      <c r="G14">
+        <v>-0.079192137550675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-6.654997757247672e-06</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005423262241879199</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.008592983640421499</v>
+      </c>
+      <c r="E15">
+        <v>0.004759151404056524</v>
+      </c>
+      <c r="F15">
+        <v>-0.007093065698077229</v>
+      </c>
+      <c r="G15">
+        <v>-0.007126148656664994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04075147139213718</v>
+        <v>-0.03592495352718832</v>
       </c>
       <c r="C16">
-        <v>0.04761870199193213</v>
+        <v>0.04443960980824249</v>
       </c>
       <c r="D16">
-        <v>0.006798227005291878</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02687664686915082</v>
+      </c>
+      <c r="E16">
+        <v>0.04212762533658261</v>
+      </c>
+      <c r="F16">
+        <v>-0.05481700038996027</v>
+      </c>
+      <c r="G16">
+        <v>-0.05375399544724697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02752674220448733</v>
+        <v>-0.01874430491840319</v>
       </c>
       <c r="C19">
-        <v>0.06039284105507511</v>
+        <v>0.04491024427507456</v>
       </c>
       <c r="D19">
-        <v>0.09397855213806221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09353490008923236</v>
+      </c>
+      <c r="E19">
+        <v>0.1118818998561323</v>
+      </c>
+      <c r="F19">
+        <v>-0.06246534339882921</v>
+      </c>
+      <c r="G19">
+        <v>-0.03749863301686442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01932500265333286</v>
+        <v>-0.01544149610870289</v>
       </c>
       <c r="C20">
-        <v>0.04900261353657484</v>
+        <v>0.03944759586252339</v>
       </c>
       <c r="D20">
-        <v>0.01180696538513882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03619895250743868</v>
+      </c>
+      <c r="E20">
+        <v>0.07989085237859378</v>
+      </c>
+      <c r="F20">
+        <v>-0.0590619861054896</v>
+      </c>
+      <c r="G20">
+        <v>-0.06300010835161002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0131235465325234</v>
+        <v>-0.01123655303989012</v>
       </c>
       <c r="C21">
-        <v>0.05368830576294237</v>
+        <v>0.04404080470071575</v>
       </c>
       <c r="D21">
-        <v>0.03251083528354399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05938003471247574</v>
+      </c>
+      <c r="E21">
+        <v>0.1286847194432145</v>
+      </c>
+      <c r="F21">
+        <v>-0.09366435363572924</v>
+      </c>
+      <c r="G21">
+        <v>-0.09080984537101983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001897933672246926</v>
+        <v>-0.003951512037466152</v>
       </c>
       <c r="C22">
-        <v>0.001228424054138196</v>
+        <v>0.02882959265217712</v>
       </c>
       <c r="D22">
-        <v>0.006643071851780401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.05049804476258762</v>
+      </c>
+      <c r="E22">
+        <v>0.05515748831375385</v>
+      </c>
+      <c r="F22">
+        <v>0.01712611985657151</v>
+      </c>
+      <c r="G22">
+        <v>-0.06403656179135254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001903807285370863</v>
+        <v>-0.004036652937047418</v>
       </c>
       <c r="C23">
-        <v>0.001247838886848629</v>
+        <v>0.02897238711833326</v>
       </c>
       <c r="D23">
-        <v>0.006631013577530416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.05004904890584152</v>
+      </c>
+      <c r="E23">
+        <v>0.05542046952538825</v>
+      </c>
+      <c r="F23">
+        <v>0.01743689704614779</v>
+      </c>
+      <c r="G23">
+        <v>-0.06403418475552625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03752641308705255</v>
+        <v>-0.03641744848245677</v>
       </c>
       <c r="C24">
-        <v>0.04953503612999934</v>
+        <v>0.05215336070992119</v>
       </c>
       <c r="D24">
-        <v>0.008597653406103122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02608769394051123</v>
+      </c>
+      <c r="E24">
+        <v>0.04318346776227219</v>
+      </c>
+      <c r="F24">
+        <v>-0.05842002182304493</v>
+      </c>
+      <c r="G24">
+        <v>-0.06550205459105715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04919543845812368</v>
+        <v>-0.04423849233262125</v>
       </c>
       <c r="C25">
-        <v>0.06004257697560768</v>
+        <v>0.05593233696178665</v>
       </c>
       <c r="D25">
-        <v>-0.002019327196556944</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0241270198481176</v>
+      </c>
+      <c r="E25">
+        <v>0.03617028924478934</v>
+      </c>
+      <c r="F25">
+        <v>-0.04912021728138962</v>
+      </c>
+      <c r="G25">
+        <v>-0.07618296922181116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0180766820557117</v>
+        <v>-0.01687883977064502</v>
       </c>
       <c r="C26">
-        <v>0.01849675585361749</v>
+        <v>0.01710817415299715</v>
       </c>
       <c r="D26">
-        <v>0.003145360087883995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02680418286727683</v>
+      </c>
+      <c r="E26">
+        <v>0.05261115952473752</v>
+      </c>
+      <c r="F26">
+        <v>-0.06185082037216653</v>
+      </c>
+      <c r="G26">
+        <v>-0.04575422443489972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08684531613115691</v>
+        <v>-0.1344346768640923</v>
       </c>
       <c r="C28">
-        <v>-0.2522884156830237</v>
+        <v>-0.2565728754442253</v>
       </c>
       <c r="D28">
-        <v>-0.002035678523336175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02519434455806905</v>
+      </c>
+      <c r="E28">
+        <v>0.05915698047446818</v>
+      </c>
+      <c r="F28">
+        <v>-0.03794222825290574</v>
+      </c>
+      <c r="G28">
+        <v>-0.05124918928233146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008101637314036366</v>
+        <v>-0.006984152983602381</v>
       </c>
       <c r="C29">
-        <v>0.03141854314250747</v>
+        <v>0.02853586108725218</v>
       </c>
       <c r="D29">
-        <v>-0.01221161631039887</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01840254202596804</v>
+      </c>
+      <c r="E29">
+        <v>0.05206180830353289</v>
+      </c>
+      <c r="F29">
+        <v>-0.07424112568488965</v>
+      </c>
+      <c r="G29">
+        <v>-0.08340630201820644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04737759392567149</v>
+        <v>-0.04411271178083688</v>
       </c>
       <c r="C30">
-        <v>0.05104969944011721</v>
+        <v>0.05706989707822435</v>
       </c>
       <c r="D30">
-        <v>0.08133991037555963</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1044123410519965</v>
+      </c>
+      <c r="E30">
+        <v>0.07876983834959646</v>
+      </c>
+      <c r="F30">
+        <v>-0.070296452534395</v>
+      </c>
+      <c r="G30">
+        <v>-0.06272653625794733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06077034366781672</v>
+        <v>-0.05894736350946463</v>
       </c>
       <c r="C31">
-        <v>0.04527838382519307</v>
+        <v>0.06102429425124802</v>
       </c>
       <c r="D31">
-        <v>-0.04180683893369865</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01717339294492361</v>
+      </c>
+      <c r="E31">
+        <v>0.071944568219361</v>
+      </c>
+      <c r="F31">
+        <v>-0.02944291358522969</v>
+      </c>
+      <c r="G31">
+        <v>-0.08110111170333435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001227467622599528</v>
+        <v>-0.005923689394974592</v>
       </c>
       <c r="C32">
-        <v>0.04225409759053282</v>
+        <v>0.03573467699679223</v>
       </c>
       <c r="D32">
-        <v>0.05906387696654935</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05849925492685268</v>
+      </c>
+      <c r="E32">
+        <v>0.06150871276551668</v>
+      </c>
+      <c r="F32">
+        <v>-0.07004128065790381</v>
+      </c>
+      <c r="G32">
+        <v>-0.06359809860753267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0355165075914525</v>
+        <v>-0.02871205291837354</v>
       </c>
       <c r="C33">
-        <v>0.05649164723688008</v>
+        <v>0.05169248700059385</v>
       </c>
       <c r="D33">
-        <v>0.04019770537293878</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07313391013087546</v>
+      </c>
+      <c r="E33">
+        <v>0.09039381279630734</v>
+      </c>
+      <c r="F33">
+        <v>-0.07339697947683481</v>
+      </c>
+      <c r="G33">
+        <v>-0.0943943055148994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04631067954971771</v>
+        <v>-0.04163024233449848</v>
       </c>
       <c r="C34">
-        <v>0.0643748846302927</v>
+        <v>0.06276860255215755</v>
       </c>
       <c r="D34">
-        <v>0.02016965562104651</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03864087267780398</v>
+      </c>
+      <c r="E34">
+        <v>0.01804859144180055</v>
+      </c>
+      <c r="F34">
+        <v>-0.05819210120616399</v>
+      </c>
+      <c r="G34">
+        <v>-0.06702313799640998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01785904187009676</v>
+        <v>-0.01509659104599412</v>
       </c>
       <c r="C36">
-        <v>0.01646868561547649</v>
+        <v>0.01358226160703398</v>
       </c>
       <c r="D36">
-        <v>-0.001722440323554459</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02572926598281412</v>
+      </c>
+      <c r="E36">
+        <v>0.06192446361000356</v>
+      </c>
+      <c r="F36">
+        <v>-0.05405979450994334</v>
+      </c>
+      <c r="G36">
+        <v>-0.06296136218737657</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03099989986763253</v>
+        <v>-0.0242223102254795</v>
       </c>
       <c r="C38">
-        <v>0.03193257938752062</v>
+        <v>0.02450165693404045</v>
       </c>
       <c r="D38">
-        <v>-0.011633464008691</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02291063561226422</v>
+      </c>
+      <c r="E38">
+        <v>0.05057024614583953</v>
+      </c>
+      <c r="F38">
+        <v>-0.04288744802886453</v>
+      </c>
+      <c r="G38">
+        <v>-0.0436401093030961</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04849675675299189</v>
+        <v>-0.04224259192027641</v>
       </c>
       <c r="C39">
-        <v>0.06155148649365235</v>
+        <v>0.06258560038006422</v>
       </c>
       <c r="D39">
-        <v>0.02167460821449875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05241611793260156</v>
+      </c>
+      <c r="E39">
+        <v>0.04961121940490627</v>
+      </c>
+      <c r="F39">
+        <v>-0.07693795820700938</v>
+      </c>
+      <c r="G39">
+        <v>-0.05847933935560545</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01114948463811088</v>
+        <v>-0.01410222631461863</v>
       </c>
       <c r="C40">
-        <v>0.05329137582411943</v>
+        <v>0.03759206885631374</v>
       </c>
       <c r="D40">
-        <v>0.02032038700718028</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03392349582064324</v>
+      </c>
+      <c r="E40">
+        <v>0.09097920098186717</v>
+      </c>
+      <c r="F40">
+        <v>-0.04175266698981793</v>
+      </c>
+      <c r="G40">
+        <v>-0.09861776101017086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02321127248225624</v>
+        <v>-0.01962878150726683</v>
       </c>
       <c r="C41">
-        <v>0.01318550719366286</v>
+        <v>0.009599186420888613</v>
       </c>
       <c r="D41">
-        <v>0.003110973407468985</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01731529137847524</v>
+      </c>
+      <c r="E41">
+        <v>0.06342777643485008</v>
+      </c>
+      <c r="F41">
+        <v>-0.04775204812791194</v>
+      </c>
+      <c r="G41">
+        <v>-0.05097568007867333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04417701116700701</v>
+        <v>-0.03136237260208616</v>
       </c>
       <c r="C43">
-        <v>0.03401588755139272</v>
+        <v>0.0250494863263766</v>
       </c>
       <c r="D43">
-        <v>0.02318987981300964</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04522547404371172</v>
+      </c>
+      <c r="E43">
+        <v>0.07820031599117558</v>
+      </c>
+      <c r="F43">
+        <v>-0.04353493339439858</v>
+      </c>
+      <c r="G43">
+        <v>-0.07796470940515844</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01602138854227875</v>
+        <v>-0.01756925512480215</v>
       </c>
       <c r="C44">
-        <v>0.07035851422342401</v>
+        <v>0.04795735325161345</v>
       </c>
       <c r="D44">
-        <v>0.01062416697827552</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03494786501547006</v>
+      </c>
+      <c r="E44">
+        <v>0.09047064268925632</v>
+      </c>
+      <c r="F44">
+        <v>-0.06599607916787349</v>
+      </c>
+      <c r="G44">
+        <v>-0.04724349882673808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01230247443099032</v>
+        <v>-0.01235138071124129</v>
       </c>
       <c r="C46">
-        <v>0.02688310909479399</v>
+        <v>0.02894431743093442</v>
       </c>
       <c r="D46">
-        <v>-0.01365360380191824</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01461356449869964</v>
+      </c>
+      <c r="E46">
+        <v>0.06135576699262862</v>
+      </c>
+      <c r="F46">
+        <v>-0.08435055971230969</v>
+      </c>
+      <c r="G46">
+        <v>-0.08164716420329868</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09044078799987267</v>
+        <v>-0.09273751795498959</v>
       </c>
       <c r="C47">
-        <v>0.0674577476979174</v>
+        <v>0.07891875420183203</v>
       </c>
       <c r="D47">
-        <v>-0.04104706283481117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02257408851237815</v>
+      </c>
+      <c r="E47">
+        <v>0.06689571431901793</v>
+      </c>
+      <c r="F47">
+        <v>-0.03031345727144924</v>
+      </c>
+      <c r="G47">
+        <v>-0.07556332819903211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01982975268256725</v>
+        <v>-0.01813411434005506</v>
       </c>
       <c r="C48">
-        <v>0.01366508235105356</v>
+        <v>0.01576926489864187</v>
       </c>
       <c r="D48">
-        <v>-0.01529716279167033</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01245461297303031</v>
+      </c>
+      <c r="E48">
+        <v>0.07336240138727482</v>
+      </c>
+      <c r="F48">
+        <v>-0.06874047677100961</v>
+      </c>
+      <c r="G48">
+        <v>-0.06803351687822687</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08486198446249317</v>
+        <v>-0.07245578687657733</v>
       </c>
       <c r="C50">
-        <v>0.08130976845554251</v>
+        <v>0.07452285673228928</v>
       </c>
       <c r="D50">
-        <v>-0.0411557405164456</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.00785345945926896</v>
+      </c>
+      <c r="E50">
+        <v>0.07779080960217218</v>
+      </c>
+      <c r="F50">
+        <v>-0.003309385646917243</v>
+      </c>
+      <c r="G50">
+        <v>-0.09209812435068812</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01828993701683779</v>
+        <v>-0.01160074014182219</v>
       </c>
       <c r="C51">
-        <v>0.04967998185635771</v>
+        <v>0.03208572125666131</v>
       </c>
       <c r="D51">
-        <v>0.04201331644476066</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05784422588096143</v>
+      </c>
+      <c r="E51">
+        <v>0.05219397052317783</v>
+      </c>
+      <c r="F51">
+        <v>-0.07285332535687133</v>
+      </c>
+      <c r="G51">
+        <v>-0.05593692839460867</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08472099470274846</v>
+        <v>-0.09791997384854852</v>
       </c>
       <c r="C53">
-        <v>0.07711014666475188</v>
+        <v>0.08499148307321419</v>
       </c>
       <c r="D53">
-        <v>-0.06359879608818096</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.06086726767747398</v>
+      </c>
+      <c r="E53">
+        <v>0.06700087552384153</v>
+      </c>
+      <c r="F53">
+        <v>-0.03006448096318101</v>
+      </c>
+      <c r="G53">
+        <v>-0.06502556082145966</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03776268646988593</v>
+        <v>-0.03056325938017057</v>
       </c>
       <c r="C54">
-        <v>0.0338260502158964</v>
+        <v>0.03141901467110037</v>
       </c>
       <c r="D54">
-        <v>-0.003774981630090284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02574856159867412</v>
+      </c>
+      <c r="E54">
+        <v>0.05768186151016581</v>
+      </c>
+      <c r="F54">
+        <v>-0.07521647134992021</v>
+      </c>
+      <c r="G54">
+        <v>-0.08381186464098121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08007217714528964</v>
+        <v>-0.0902577409359715</v>
       </c>
       <c r="C55">
-        <v>0.05265512006244907</v>
+        <v>0.06686878965421762</v>
       </c>
       <c r="D55">
-        <v>-0.06959827628394159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06141057075874595</v>
+      </c>
+      <c r="E55">
+        <v>0.04482561046295735</v>
+      </c>
+      <c r="F55">
+        <v>-0.007367933112268973</v>
+      </c>
+      <c r="G55">
+        <v>-0.05238359686885305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1544916805287482</v>
+        <v>-0.156286678760244</v>
       </c>
       <c r="C56">
-        <v>0.08214854895599982</v>
+        <v>0.1000791135534734</v>
       </c>
       <c r="D56">
-        <v>-0.05940194831841542</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05487059871875082</v>
+      </c>
+      <c r="E56">
+        <v>0.03883796592548708</v>
+      </c>
+      <c r="F56">
+        <v>0.0140667719784699</v>
+      </c>
+      <c r="G56">
+        <v>-0.02117948431899252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04975620642036442</v>
+        <v>-0.03063923721970055</v>
       </c>
       <c r="C58">
-        <v>0.01537019378290178</v>
+        <v>0.02087512200700551</v>
       </c>
       <c r="D58">
-        <v>0.6040687832294962</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3857519250421451</v>
+      </c>
+      <c r="E58">
+        <v>0.613441261549998</v>
+      </c>
+      <c r="F58">
+        <v>0.4534122889840739</v>
+      </c>
+      <c r="G58">
+        <v>0.4324446418151227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.122881897289428</v>
+        <v>-0.1386668482682965</v>
       </c>
       <c r="C59">
-        <v>-0.2030221402990743</v>
+        <v>-0.1916107393994618</v>
       </c>
       <c r="D59">
-        <v>0.02964172331615976</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03138795235742159</v>
+      </c>
+      <c r="E59">
+        <v>0.03146142789714823</v>
+      </c>
+      <c r="F59">
+        <v>-0.03149405128428181</v>
+      </c>
+      <c r="G59">
+        <v>0.01032246291419619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3049314640674294</v>
+        <v>-0.2741937690824897</v>
       </c>
       <c r="C60">
-        <v>0.1099399492341218</v>
+        <v>0.1049894854216507</v>
       </c>
       <c r="D60">
-        <v>0.169768864383067</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2484515759463944</v>
+      </c>
+      <c r="E60">
+        <v>-0.2450571960126198</v>
+      </c>
+      <c r="F60">
+        <v>0.08594137621572076</v>
+      </c>
+      <c r="G60">
+        <v>-0.04634630762367842</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04754088190510042</v>
+        <v>-0.04377594760324423</v>
       </c>
       <c r="C61">
-        <v>0.05989716932909953</v>
+        <v>0.05789299227841808</v>
       </c>
       <c r="D61">
-        <v>0.01605525123928568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0435505643506685</v>
+      </c>
+      <c r="E61">
+        <v>0.05102473017990333</v>
+      </c>
+      <c r="F61">
+        <v>-0.06146849984171909</v>
+      </c>
+      <c r="G61">
+        <v>-0.07330782689004094</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01920968502165171</v>
+        <v>-0.01730455609124129</v>
       </c>
       <c r="C63">
-        <v>0.03358274248842483</v>
+        <v>0.03086854428943416</v>
       </c>
       <c r="D63">
-        <v>-0.0202901347002923</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01723448262874153</v>
+      </c>
+      <c r="E63">
+        <v>0.06272257219027003</v>
+      </c>
+      <c r="F63">
+        <v>-0.04385283431463727</v>
+      </c>
+      <c r="G63">
+        <v>-0.07189171500561083</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05149987175346209</v>
+        <v>-0.05721867416050022</v>
       </c>
       <c r="C64">
-        <v>0.04909695709389272</v>
+        <v>0.05859249516801163</v>
       </c>
       <c r="D64">
-        <v>0.01485834192288621</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.00919165091383322</v>
+      </c>
+      <c r="E64">
+        <v>0.04505776486902884</v>
+      </c>
+      <c r="F64">
+        <v>-0.05788429592387453</v>
+      </c>
+      <c r="G64">
+        <v>-0.04988819800570588</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.079092320500588</v>
+        <v>-0.0639783865736691</v>
       </c>
       <c r="C65">
-        <v>0.02635714189301547</v>
+        <v>0.0261180095747767</v>
       </c>
       <c r="D65">
-        <v>0.06166966385233782</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08822365800305557</v>
+      </c>
+      <c r="E65">
+        <v>0.05645314015096597</v>
+      </c>
+      <c r="F65">
+        <v>-0.008724001691860932</v>
+      </c>
+      <c r="G65">
+        <v>-0.02103897644662479</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06389020602910729</v>
+        <v>-0.05473688840854694</v>
       </c>
       <c r="C66">
-        <v>0.08415895662893985</v>
+        <v>0.07987828367576626</v>
       </c>
       <c r="D66">
-        <v>0.04197917744425741</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07735276933119656</v>
+      </c>
+      <c r="E66">
+        <v>0.06089594727058278</v>
+      </c>
+      <c r="F66">
+        <v>-0.0686613668851148</v>
+      </c>
+      <c r="G66">
+        <v>-0.07219718842210442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05215102114674364</v>
+        <v>-0.04522180876819726</v>
       </c>
       <c r="C67">
-        <v>0.03145643493529802</v>
+        <v>0.02879474624814615</v>
       </c>
       <c r="D67">
-        <v>-0.02127655862399054</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005188824732429895</v>
+      </c>
+      <c r="E67">
+        <v>0.02682656480532417</v>
+      </c>
+      <c r="F67">
+        <v>-0.02904417518132598</v>
+      </c>
+      <c r="G67">
+        <v>-0.03510460624870221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.121512695389502</v>
+        <v>-0.1460113726193062</v>
       </c>
       <c r="C68">
-        <v>-0.2824186174777208</v>
+        <v>-0.2456477515638935</v>
       </c>
       <c r="D68">
-        <v>-0.006187638808854225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01374330315004377</v>
+      </c>
+      <c r="E68">
+        <v>0.04123014987893574</v>
+      </c>
+      <c r="F68">
+        <v>-0.01234588008071172</v>
+      </c>
+      <c r="G68">
+        <v>-0.0283262921000646</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09371448432885907</v>
+        <v>-0.0887393049428432</v>
       </c>
       <c r="C69">
-        <v>0.07077018733765821</v>
+        <v>0.08981719460680239</v>
       </c>
       <c r="D69">
-        <v>-0.05022648749271555</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01457960713285585</v>
+      </c>
+      <c r="E69">
+        <v>0.05777822624439851</v>
+      </c>
+      <c r="F69">
+        <v>-0.05937440636823325</v>
+      </c>
+      <c r="G69">
+        <v>-0.07074032705537413</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1129967254081312</v>
+        <v>-0.1402709257395241</v>
       </c>
       <c r="C71">
-        <v>-0.2592429278299364</v>
+        <v>-0.2442577979542194</v>
       </c>
       <c r="D71">
-        <v>0.01263847371634219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003302829010464875</v>
+      </c>
+      <c r="E71">
+        <v>0.05560530406861091</v>
+      </c>
+      <c r="F71">
+        <v>-0.01557916115503765</v>
+      </c>
+      <c r="G71">
+        <v>-0.06345698962368154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09754813503136363</v>
+        <v>-0.1043100822643338</v>
       </c>
       <c r="C72">
-        <v>0.0437187902921518</v>
+        <v>0.04933256428787073</v>
       </c>
       <c r="D72">
-        <v>0.006013538143530239</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03690786655464634</v>
+      </c>
+      <c r="E72">
+        <v>0.02034472238973604</v>
+      </c>
+      <c r="F72">
+        <v>-0.03606608279759754</v>
+      </c>
+      <c r="G72">
+        <v>-0.09177325328327762</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3918584134482569</v>
+        <v>-0.3313373087760015</v>
       </c>
       <c r="C73">
-        <v>0.04787700166241531</v>
+        <v>0.06864272168555148</v>
       </c>
       <c r="D73">
-        <v>0.4327562652202923</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5024477934845644</v>
+      </c>
+      <c r="E73">
+        <v>-0.4641625151299972</v>
+      </c>
+      <c r="F73">
+        <v>0.2400072519012559</v>
+      </c>
+      <c r="G73">
+        <v>-0.03106248139118395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1088784633430101</v>
+        <v>-0.1130927819201159</v>
       </c>
       <c r="C74">
-        <v>0.09289010254199154</v>
+        <v>0.09228891519139459</v>
       </c>
       <c r="D74">
-        <v>-0.04500756070013175</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04679350629118405</v>
+      </c>
+      <c r="E74">
+        <v>0.05795398576062828</v>
+      </c>
+      <c r="F74">
+        <v>0.005551930756422165</v>
+      </c>
+      <c r="G74">
+        <v>-0.04693609527079128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2580134574588144</v>
+        <v>-0.2615785482029452</v>
       </c>
       <c r="C75">
-        <v>0.08625296391608436</v>
+        <v>0.1201665329518413</v>
       </c>
       <c r="D75">
-        <v>-0.1374188164366884</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1521338412922433</v>
+      </c>
+      <c r="E75">
+        <v>0.03114084020846294</v>
+      </c>
+      <c r="F75">
+        <v>0.05804376208236144</v>
+      </c>
+      <c r="G75">
+        <v>0.05395839439016353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1171653477282579</v>
+        <v>-0.1305310349311033</v>
       </c>
       <c r="C76">
-        <v>0.07829711634022417</v>
+        <v>0.09006151436915795</v>
       </c>
       <c r="D76">
-        <v>-0.07352872951735655</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.08097013739044474</v>
+      </c>
+      <c r="E76">
+        <v>0.07345640625773503</v>
+      </c>
+      <c r="F76">
+        <v>-0.01639091695623556</v>
+      </c>
+      <c r="G76">
+        <v>-0.0324325498719521</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0830651978807951</v>
+        <v>-0.0677939965881354</v>
       </c>
       <c r="C77">
-        <v>0.04320902399916517</v>
+        <v>0.0587154347433372</v>
       </c>
       <c r="D77">
-        <v>0.05678001040181969</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06070969143665511</v>
+      </c>
+      <c r="E77">
+        <v>0.09673312425399455</v>
+      </c>
+      <c r="F77">
+        <v>-0.1754009414940969</v>
+      </c>
+      <c r="G77">
+        <v>0.1128634225247546</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05007081293802244</v>
+        <v>-0.04793311162327629</v>
       </c>
       <c r="C78">
-        <v>0.04023178990681506</v>
+        <v>0.05213957052496395</v>
       </c>
       <c r="D78">
-        <v>0.03199802423480799</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06577350239167751</v>
+      </c>
+      <c r="E78">
+        <v>0.06167648023605155</v>
+      </c>
+      <c r="F78">
+        <v>-0.06471784140981839</v>
+      </c>
+      <c r="G78">
+        <v>-0.0601648431565203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-2.27097876827427e-05</v>
+        <v>-0.03329357306219478</v>
       </c>
       <c r="C79">
-        <v>0.0004692298195788851</v>
+        <v>0.04737502295512352</v>
       </c>
       <c r="D79">
-        <v>0.001552000411663551</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08228821753242564</v>
+      </c>
+      <c r="E79">
+        <v>0.06734209579082447</v>
+      </c>
+      <c r="F79">
+        <v>0.02052836063433549</v>
+      </c>
+      <c r="G79">
+        <v>-0.03243363734060681</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03937899783686663</v>
+        <v>-0.03013697914742056</v>
       </c>
       <c r="C80">
-        <v>0.0501555750838656</v>
+        <v>0.05067200655573537</v>
       </c>
       <c r="D80">
-        <v>0.0299342300977251</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04027842355047886</v>
+      </c>
+      <c r="E80">
+        <v>0.01550199467357046</v>
+      </c>
+      <c r="F80">
+        <v>-0.05624567468572619</v>
+      </c>
+      <c r="G80">
+        <v>0.001218119852765502</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1435383472644865</v>
+        <v>-0.1429549792194451</v>
       </c>
       <c r="C81">
-        <v>0.07077894387710167</v>
+        <v>0.0908046292868961</v>
       </c>
       <c r="D81">
-        <v>-0.1066063649430185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1250467052905095</v>
+      </c>
+      <c r="E81">
+        <v>0.07180233223121837</v>
+      </c>
+      <c r="F81">
+        <v>0.02714076269984601</v>
+      </c>
+      <c r="G81">
+        <v>0.01293331517397017</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1930720738920581</v>
+        <v>-0.2270402826155155</v>
       </c>
       <c r="C82">
-        <v>0.08641282194827529</v>
+        <v>0.150431840324039</v>
       </c>
       <c r="D82">
-        <v>-0.1966559057909827</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2510245976734509</v>
+      </c>
+      <c r="E82">
+        <v>-0.03332588965628536</v>
+      </c>
+      <c r="F82">
+        <v>-0.04441883426869851</v>
+      </c>
+      <c r="G82">
+        <v>-0.05512192465121929</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04189316707935559</v>
+        <v>-0.02813828236187135</v>
       </c>
       <c r="C83">
-        <v>0.03098686024022661</v>
+        <v>0.04456493737803107</v>
       </c>
       <c r="D83">
-        <v>0.03760750972682807</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03251538897091883</v>
+      </c>
+      <c r="E83">
+        <v>0.02510227524466433</v>
+      </c>
+      <c r="F83">
+        <v>-0.03104226243788833</v>
+      </c>
+      <c r="G83">
+        <v>-0.003433562696462725</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002937424937827546</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0004416808091733475</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0003154415128863791</v>
+      </c>
+      <c r="E84">
+        <v>0.0028285154228707</v>
+      </c>
+      <c r="F84">
+        <v>0.001321738776000428</v>
+      </c>
+      <c r="G84">
+        <v>-0.0009700936586018486</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2201634389932735</v>
+        <v>-0.204253496672832</v>
       </c>
       <c r="C85">
-        <v>0.08955221434679744</v>
+        <v>0.1085484585594672</v>
       </c>
       <c r="D85">
-        <v>-0.1643363515485197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1313832989786961</v>
+      </c>
+      <c r="E85">
+        <v>-0.006150702400234284</v>
+      </c>
+      <c r="F85">
+        <v>0.1040101923754137</v>
+      </c>
+      <c r="G85">
+        <v>-0.003206731617977605</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009906847267710061</v>
+        <v>-0.01287506454433362</v>
       </c>
       <c r="C86">
-        <v>0.02918182442818558</v>
+        <v>0.01864007267320836</v>
       </c>
       <c r="D86">
-        <v>0.04631292944230659</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06602847778156096</v>
+      </c>
+      <c r="E86">
+        <v>0.07811313291118208</v>
+      </c>
+      <c r="F86">
+        <v>-0.08696041391376536</v>
+      </c>
+      <c r="G86">
+        <v>-0.06866467031437355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.0264136436428195</v>
+        <v>-0.02700122923765831</v>
       </c>
       <c r="C87">
-        <v>0.003939023562035033</v>
+        <v>0.0128120084995856</v>
       </c>
       <c r="D87">
-        <v>0.09136247212840641</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08810979056651083</v>
+      </c>
+      <c r="E87">
+        <v>0.1275372297870915</v>
+      </c>
+      <c r="F87">
+        <v>-0.07791229877844123</v>
+      </c>
+      <c r="G87">
+        <v>-0.0004851270235557096</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1102681619733274</v>
+        <v>-0.09405560129409521</v>
       </c>
       <c r="C88">
-        <v>0.07698002872603278</v>
+        <v>0.06360950283990922</v>
       </c>
       <c r="D88">
-        <v>-0.02242648947909496</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0101803921985483</v>
+      </c>
+      <c r="E88">
+        <v>0.05148550149750827</v>
+      </c>
+      <c r="F88">
+        <v>-0.0509380734142514</v>
+      </c>
+      <c r="G88">
+        <v>-0.03364626392699117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.174995011460885</v>
+        <v>-0.2123442733767364</v>
       </c>
       <c r="C89">
-        <v>-0.3835305317878576</v>
+        <v>-0.3852500338397749</v>
       </c>
       <c r="D89">
-        <v>-0.022837991858692</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01223387601844312</v>
+      </c>
+      <c r="E89">
+        <v>0.0712686396487044</v>
+      </c>
+      <c r="F89">
+        <v>-0.08811872502408936</v>
+      </c>
+      <c r="G89">
+        <v>0.005321670412804866</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1687369656754421</v>
+        <v>-0.1934427800218185</v>
       </c>
       <c r="C90">
-        <v>-0.3354865441713562</v>
+        <v>-0.3130071169929589</v>
       </c>
       <c r="D90">
-        <v>-0.03626191436774494</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01913854578094899</v>
+      </c>
+      <c r="E90">
+        <v>0.05755681907143781</v>
+      </c>
+      <c r="F90">
+        <v>-0.03113079568137851</v>
+      </c>
+      <c r="G90">
+        <v>-0.01133091822229517</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1903546120110788</v>
+        <v>-0.1880548092478711</v>
       </c>
       <c r="C91">
-        <v>0.1221785632597374</v>
+        <v>0.1389090486327227</v>
       </c>
       <c r="D91">
-        <v>-0.1307758924406207</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1308410006930991</v>
+      </c>
+      <c r="E91">
+        <v>0.0497777726656214</v>
+      </c>
+      <c r="F91">
+        <v>0.01476993328668277</v>
+      </c>
+      <c r="G91">
+        <v>0.005847589074009699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1584864919756442</v>
+        <v>-0.1780877660718318</v>
       </c>
       <c r="C92">
-        <v>-0.2958244975639573</v>
+        <v>-0.2985723280445483</v>
       </c>
       <c r="D92">
-        <v>-0.01605872702046807</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01343846145165841</v>
+      </c>
+      <c r="E92">
+        <v>0.06164149189818725</v>
+      </c>
+      <c r="F92">
+        <v>-0.05775821527298835</v>
+      </c>
+      <c r="G92">
+        <v>-0.02631108503341202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1883585807735571</v>
+        <v>-0.2143192678317417</v>
       </c>
       <c r="C93">
-        <v>-0.3411549939790893</v>
+        <v>-0.3222133464590166</v>
       </c>
       <c r="D93">
-        <v>-0.03820101942723015</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01838723870231538</v>
+      </c>
+      <c r="E93">
+        <v>0.03859068219857573</v>
+      </c>
+      <c r="F93">
+        <v>-0.005524979814673517</v>
+      </c>
+      <c r="G93">
+        <v>-0.04149693150328351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3440662831853503</v>
+        <v>-0.3455676221508223</v>
       </c>
       <c r="C94">
-        <v>0.1232138412782124</v>
+        <v>0.1704662665010339</v>
       </c>
       <c r="D94">
-        <v>-0.3703871271497616</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4038621932785444</v>
+      </c>
+      <c r="E94">
+        <v>0.003562442399542009</v>
+      </c>
+      <c r="F94">
+        <v>0.1531984974593892</v>
+      </c>
+      <c r="G94">
+        <v>0.3792949489593868</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1251116538558174</v>
+        <v>-0.09180608428448823</v>
       </c>
       <c r="C95">
-        <v>0.04955564694808277</v>
+        <v>0.05675942517382405</v>
       </c>
       <c r="D95">
-        <v>0.2115729233590728</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.2009118699706942</v>
+      </c>
+      <c r="E95">
+        <v>-0.1230945355172104</v>
+      </c>
+      <c r="F95">
+        <v>-0.6697421784966661</v>
+      </c>
+      <c r="G95">
+        <v>0.6134307489024518</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1932604262392821</v>
+        <v>-0.1869948967520746</v>
       </c>
       <c r="C98">
-        <v>0.03311407701533291</v>
+        <v>0.05027006983162077</v>
       </c>
       <c r="D98">
-        <v>0.1589825383909249</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2015305684168578</v>
+      </c>
+      <c r="E98">
+        <v>-0.1457005714949777</v>
+      </c>
+      <c r="F98">
+        <v>0.08033398203082739</v>
+      </c>
+      <c r="G98">
+        <v>-0.08213059904156374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007881628630301736</v>
+        <v>-0.006980708586777706</v>
       </c>
       <c r="C101">
-        <v>0.03144792958456961</v>
+        <v>0.02808396113671101</v>
       </c>
       <c r="D101">
-        <v>-0.01196643320016906</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01832193566136421</v>
+      </c>
+      <c r="E101">
+        <v>0.05273319349306277</v>
+      </c>
+      <c r="F101">
+        <v>-0.07495647426504615</v>
+      </c>
+      <c r="G101">
+        <v>-0.08318218235039133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1231045132284498</v>
+        <v>-0.1263916833671812</v>
       </c>
       <c r="C102">
-        <v>0.06625422564699011</v>
+        <v>0.09750282183986353</v>
       </c>
       <c r="D102">
-        <v>-0.04977060985905152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05908409243663049</v>
+      </c>
+      <c r="E102">
+        <v>-0.01182225766870404</v>
+      </c>
+      <c r="F102">
+        <v>-0.01938444140907038</v>
+      </c>
+      <c r="G102">
+        <v>0.01273617398052278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
